--- a/3_output/tablas/gse_tables/middle_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/middle_ajust_apbi.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>40.97163787103818</v>
+        <v>40.97150862403396</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8897168048654447</v>
+        <v>0.8897175185661754</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.067945951350389</v>
+        <v>0.06794573149298606</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2978588497527974</v>
+        <v>0.2980380219122492</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/middle_ajust_apbi.xlsx
+++ b/3_output/tablas/gse_tables/middle_ajust_apbi.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>40.97150862403396</v>
+        <v>42.1528016991515</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8897175185661754</v>
+        <v>0.8831918052583442</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.06794573149298606</v>
+        <v>0.07009666744759946</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2980380219122492</v>
+        <v>0.301096752753339</v>
       </c>
     </row>
   </sheetData>
